--- a/biology/Zoologie/Engoulevent_d'Abyssinie/Engoulevent_d'Abyssinie.xlsx
+++ b/biology/Zoologie/Engoulevent_d'Abyssinie/Engoulevent_d'Abyssinie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Engoulevent_d%27Abyssinie</t>
+          <t>Engoulevent_d'Abyssinie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caprimulgus poliocephalus
 L'Engoulevent d'Abyssinie (Caprimulgus poliocephalus) est une espèce d'oiseaux de la famille des Caprimulgidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Engoulevent_d%27Abyssinie</t>
+          <t>Engoulevent_d'Abyssinie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit en Afrique centrale et orientale. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Engoulevent_d%27Abyssinie</t>
+          <t>Engoulevent_d'Abyssinie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'engoulevent d'Abyssinie est de couleur particulièrement sombre pour un engoulevent ; il atteint 23 centimètres de long à l'âge adulte. Il a un plumage tacheté aux teintes fauves, noires ou chocolat. Le mâle a des taches blanches sur ses quatre principales rémiges primaires et le bord extérieur de sa queue est également blanc. La femelle a des taches de couleur chamois sur ses régimes primaires et la partie blanche de sa queue est moins étendue. Son cri est très nasal : un ank-ank-ank souvent suivi d'un sifflement aigu (piiiyu-pirrr), la première syllabe descendante puis montante, la seconde syllabe tremblante et descendante[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'engoulevent d'Abyssinie est de couleur particulièrement sombre pour un engoulevent ; il atteint 23 centimètres de long à l'âge adulte. Il a un plumage tacheté aux teintes fauves, noires ou chocolat. Le mâle a des taches blanches sur ses quatre principales rémiges primaires et le bord extérieur de sa queue est également blanc. La femelle a des taches de couleur chamois sur ses régimes primaires et la partie blanche de sa queue est moins étendue. Son cri est très nasal : un ank-ank-ank souvent suivi d'un sifflement aigu (piiiyu-pirrr), la première syllabe descendante puis montante, la seconde syllabe tremblante et descendante.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Engoulevent_d%27Abyssinie</t>
+          <t>Engoulevent_d'Abyssinie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,14 +590,16 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On dénombre actuellement 4 sous-espèces de l'engoulevent d'Abyssinie[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On dénombre actuellement 4 sous-espèces de l'engoulevent d'Abyssinie :
 C. p. poliocephalus (Rüppell, 1840) :  Vit en Éthiopie, dans le nord de la Tanzanie et le sud-est de l'Arabie saoudite.
-C. p. ruwenzorii (Ogilvie-Grant, 1909[3]) : Vit dans le sud-ouest de l'Ouganda et l'est de la République démocratique du Congo.
+C. p. ruwenzorii (Ogilvie-Grant, 1909) : Vit dans le sud-ouest de l'Ouganda et l'est de la République démocratique du Congo.
 C. p. guttifer (Grote, 1921) : Vit en Tanzanie, au Malawi et en Zambie.
 C. p. koesteri (Neumann, 1931) : Vit dans le centre de l'Angola.
-Les sous-espèces ruwenzorii et koesteri étaient anciennement considérées comme des espèces à part (dénommées Engoulevent du Ruwenzori et Engoulevent de Benguela), à partir des années 1980, en se fondant notamment sur le chant ; cette séparation a cependant été rapidement disputée. Une étude de H. D. Jackson sur 68 spécimens, conclut qu'il n'y a pas de différence suffisante entre ruwenzorii et poliocephalus sur les mesures qui permettraient des les distinguer ; il note que le plumage n'est dans ce cas pas un bon critère car celui-ci est très variable au sein même d'une espèce chez les engoulevents[4]. Les principales autorités taxonomiques s'accordent maintenant pour considérer ruwenzorii comme une sous-espèce[5].
+Les sous-espèces ruwenzorii et koesteri étaient anciennement considérées comme des espèces à part (dénommées Engoulevent du Ruwenzori et Engoulevent de Benguela), à partir des années 1980, en se fondant notamment sur le chant ; cette séparation a cependant été rapidement disputée. Une étude de H. D. Jackson sur 68 spécimens, conclut qu'il n'y a pas de différence suffisante entre ruwenzorii et poliocephalus sur les mesures qui permettraient des les distinguer ; il note que le plumage n'est dans ce cas pas un bon critère car celui-ci est très variable au sein même d'une espèce chez les engoulevents. Les principales autorités taxonomiques s'accordent maintenant pour considérer ruwenzorii comme une sous-espèce.
 </t>
         </is>
       </c>
